--- a/precios1.xlsx
+++ b/precios1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\controlagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C402FCF-4528-45B2-ACD2-84372ACAABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E421A941-8CD4-4359-9348-B5EF8F3DFC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{676E1655-04D6-4518-841D-CA3DA9354C2A}"/>
   </bookViews>
@@ -62,19 +62,19 @@
     <t>CAS-5100 c/GPS</t>
   </si>
   <si>
-    <t>CAS0000 para TRACTOR con 1000/1500/2500/2700/4801</t>
-  </si>
-  <si>
     <t>CAS0000 p/TRACTOR con CAS4500 + SENS. de VEL. O MOD. TREN ID</t>
   </si>
   <si>
     <t>CAS0000 p/ TRACTOR con CAS4500    + GPS  + MOD. TREN ID</t>
   </si>
   <si>
-    <t>CAS0000 p/ TRACTOR con CAS5100 + ECU</t>
+    <t>CAS0000 p/ TRACTOR con HEXAGON + DRIVER Hex</t>
   </si>
   <si>
-    <t>CAS0000 p/ TRACTOR con HEXAGON + DRIVER Hex</t>
+    <t>CAS0000 para TRACTOR con 1500/2500/2700/4800</t>
+  </si>
+  <si>
+    <t>CAS0000 p/ TRACTOR con CAS5100 o INTEGRA + ECU</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBDA4A0-11E7-4D74-BDA7-46948E0C69CA}">
   <dimension ref="A1:C723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="A576" sqref="A576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B367">
         <v>4</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B368">
         <v>5</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B369">
         <v>6</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B370">
         <v>7</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B371">
         <v>8</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B372">
         <v>9</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B373">
         <v>10</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B374">
         <v>11</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B375">
         <v>12</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B376">
         <v>13</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B377">
         <v>14</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B378">
         <v>15</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B379">
         <v>16</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B380">
         <v>17</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B381">
         <v>18</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B382">
         <v>19</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B383">
         <v>20</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B384">
         <v>21</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B385">
         <v>22</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B386">
         <v>23</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B387">
         <v>24</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B388">
         <v>25</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B389">
         <v>26</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B390">
         <v>27</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B391">
         <v>28</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B392">
         <v>29</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B393">
         <v>30</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B394">
         <v>31</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B395">
         <v>32</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B396">
         <v>33</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B397">
         <v>34</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B398">
         <v>35</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B399">
         <v>36</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B400">
         <v>37</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B401">
         <v>38</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B402">
         <v>39</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B403">
         <v>40</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B404">
         <v>41</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B405">
         <v>42</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B406">
         <v>43</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B407">
         <v>44</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B408">
         <v>45</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B409">
         <v>46</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B410">
         <v>47</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B411">
         <v>48</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B412">
         <v>49</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B413">
         <v>50</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B414">
         <v>51</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B415">
         <v>52</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B416">
         <v>53</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B417">
         <v>54</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B418">
         <v>55</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B419">
         <v>56</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B420">
         <v>57</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B421">
         <v>58</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B422">
         <v>59</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B423">
         <v>60</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B424">
         <v>61</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B425">
         <v>62</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B426">
         <v>63</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B427">
         <v>64</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B430">
         <v>3</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B431">
         <v>4</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B432">
         <v>5</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B433">
         <v>6</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B434">
         <v>7</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B435">
         <v>8</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B436">
         <v>9</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B437">
         <v>10</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B438">
         <v>11</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B439">
         <v>12</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B440">
         <v>13</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B441">
         <v>14</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B442">
         <v>15</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B443">
         <v>16</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B444">
         <v>17</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B445">
         <v>18</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B446">
         <v>19</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B447">
         <v>20</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B448">
         <v>21</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B449">
         <v>22</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B450">
         <v>23</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B451">
         <v>24</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B452">
         <v>25</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B453">
         <v>26</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B454">
         <v>27</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B455">
         <v>28</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B456">
         <v>29</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B457">
         <v>30</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B458">
         <v>31</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B459">
         <v>32</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B460">
         <v>33</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B461">
         <v>34</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B462">
         <v>35</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B463">
         <v>36</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B464">
         <v>37</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B465">
         <v>38</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B466">
         <v>39</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B467">
         <v>40</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B468">
         <v>41</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B469">
         <v>42</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B470">
         <v>43</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B471">
         <v>44</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B472">
         <v>45</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B473">
         <v>46</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B474">
         <v>47</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B475">
         <v>48</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B476">
         <v>49</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B477">
         <v>50</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B478">
         <v>51</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B479">
         <v>52</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B480">
         <v>53</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B481">
         <v>54</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B482">
         <v>55</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B483">
         <v>56</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B484">
         <v>57</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B485">
         <v>58</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B486">
         <v>59</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B487">
         <v>60</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B488">
         <v>61</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B489">
         <v>62</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B490">
         <v>63</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B491">
         <v>64</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B492">
         <v>65</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B493">
         <v>66</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B494">
         <v>67</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B495">
         <v>68</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B496">
         <v>69</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B497">
         <v>70</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B498">
         <v>71</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B499">
         <v>72</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B500">
         <v>73</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B501">
         <v>74</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B504">
         <v>3</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B505">
         <v>4</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B506">
         <v>5</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B507">
         <v>6</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B508">
         <v>7</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B509">
         <v>8</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B510">
         <v>9</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B511">
         <v>10</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B512">
         <v>11</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B513">
         <v>12</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B514">
         <v>13</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B515">
         <v>14</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B516">
         <v>15</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B517">
         <v>16</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B518">
         <v>17</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B519">
         <v>18</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B520">
         <v>19</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B521">
         <v>20</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B522">
         <v>21</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B523">
         <v>22</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B524">
         <v>23</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B525">
         <v>24</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B526">
         <v>25</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B527">
         <v>26</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B528">
         <v>27</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B529">
         <v>28</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B530">
         <v>29</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B531">
         <v>30</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B532">
         <v>31</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B533">
         <v>32</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B534">
         <v>33</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B535">
         <v>34</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B536">
         <v>35</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B537">
         <v>36</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B538">
         <v>37</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B539">
         <v>38</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B540">
         <v>39</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B541">
         <v>40</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B542">
         <v>41</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B543">
         <v>42</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B544">
         <v>43</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B545">
         <v>44</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B546">
         <v>45</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B547">
         <v>46</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B548">
         <v>47</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B549">
         <v>48</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B550">
         <v>49</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B551">
         <v>50</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B552">
         <v>51</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B553">
         <v>52</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B554">
         <v>53</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B555">
         <v>54</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B556">
         <v>55</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B557">
         <v>56</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B558">
         <v>57</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B559">
         <v>58</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B560">
         <v>59</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B561">
         <v>60</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B562">
         <v>61</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B563">
         <v>62</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B564">
         <v>63</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B565">
         <v>64</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B566">
         <v>65</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B567">
         <v>66</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B568">
         <v>67</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B569">
         <v>68</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B570">
         <v>69</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B571">
         <v>70</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B572">
         <v>71</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B573">
         <v>72</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B574">
         <v>73</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B575">
         <v>74</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B578">
         <v>3</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B580">
         <v>5</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B581">
         <v>6</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B582">
         <v>7</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B583">
         <v>8</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B584">
         <v>9</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B585">
         <v>10</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B586">
         <v>11</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B587">
         <v>12</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B588">
         <v>13</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B589">
         <v>14</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B590">
         <v>15</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B591">
         <v>16</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B592">
         <v>17</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B593">
         <v>18</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B594">
         <v>19</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B595">
         <v>20</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B596">
         <v>21</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B597">
         <v>22</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B598">
         <v>23</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B599">
         <v>24</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B600">
         <v>25</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B601">
         <v>26</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B602">
         <v>27</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B603">
         <v>28</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B604">
         <v>29</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B605">
         <v>30</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B606">
         <v>31</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B607">
         <v>32</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B608">
         <v>33</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B609">
         <v>34</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B610">
         <v>35</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B611">
         <v>36</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B612">
         <v>37</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B613">
         <v>38</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B614">
         <v>39</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B615">
         <v>40</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B616">
         <v>41</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B617">
         <v>42</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B618">
         <v>43</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B619">
         <v>44</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B620">
         <v>45</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B621">
         <v>46</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B622">
         <v>47</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B623">
         <v>48</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B624">
         <v>49</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B625">
         <v>50</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B626">
         <v>51</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B627">
         <v>52</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B628">
         <v>53</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B629">
         <v>54</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B630">
         <v>55</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B631">
         <v>56</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B632">
         <v>57</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B633">
         <v>58</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B634">
         <v>59</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B635">
         <v>60</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B636">
         <v>61</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B637">
         <v>62</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B638">
         <v>63</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B639">
         <v>64</v>
@@ -7494,7 +7494,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B640">
         <v>65</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B641">
         <v>66</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B642">
         <v>67</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B643">
         <v>68</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B644">
         <v>69</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B645">
         <v>70</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B646">
         <v>71</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B647">
         <v>72</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B648">
         <v>73</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B649">
         <v>74</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B652">
         <v>3</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B653">
         <v>4</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B654">
         <v>5</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B655">
         <v>6</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B656">
         <v>7</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B657">
         <v>8</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B658">
         <v>9</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B659">
         <v>10</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B660">
         <v>11</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B661">
         <v>12</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B662">
         <v>13</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B663">
         <v>14</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B664">
         <v>15</v>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B665">
         <v>16</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B666">
         <v>17</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B667">
         <v>18</v>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B668">
         <v>19</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B669">
         <v>20</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B670">
         <v>21</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B671">
         <v>22</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B672">
         <v>23</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B673">
         <v>24</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B674">
         <v>25</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B675">
         <v>26</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B676">
         <v>27</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B677">
         <v>28</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B678">
         <v>29</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B679">
         <v>30</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B680">
         <v>31</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B681">
         <v>32</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B682">
         <v>33</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B683">
         <v>34</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B684">
         <v>35</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B685">
         <v>36</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B686">
         <v>37</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B687">
         <v>38</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B688">
         <v>39</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B689">
         <v>40</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B690">
         <v>41</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B691">
         <v>42</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B692">
         <v>43</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B693">
         <v>44</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B694">
         <v>45</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B695">
         <v>46</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B696">
         <v>47</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B697">
         <v>48</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B698">
         <v>49</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B699">
         <v>50</v>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B700">
         <v>51</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B701">
         <v>52</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B702">
         <v>53</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B703">
         <v>54</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B704">
         <v>55</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B705">
         <v>56</v>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B706">
         <v>57</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B707">
         <v>58</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B708">
         <v>59</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B709">
         <v>60</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B710">
         <v>61</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B711">
         <v>62</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B712">
         <v>63</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B713">
         <v>64</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B714">
         <v>65</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B715">
         <v>66</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B716">
         <v>67</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B717">
         <v>68</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B718">
         <v>69</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B719">
         <v>70</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B720">
         <v>71</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B721">
         <v>72</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B722">
         <v>73</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B723">
         <v>74</v>
